--- a/DGPF.WebAPI/ExcelModel/组织机构.xlsx
+++ b/DGPF.WebAPI/ExcelModel/组织机构.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{583B2352-05DC-4C41-949A-54593C1E777B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>组织机构编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +39,17 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,11 +367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -375,9 +380,10 @@
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,12 +398,15 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
